--- a/[Document]/소개운영자료/DIVE_개인정보_진로현황.xlsx
+++ b/[Document]/소개운영자료/DIVE_개인정보_진로현황.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataScience\[DIVE]\Document\소개운영자료\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataScience\[DIVE]\[Document]\소개운영자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AC9CF7F-324A-4AD4-B021-D134996C1139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5D40E16-356D-46A2-AF71-A73A3436CB33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -411,10 +411,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -635,7 +635,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -655,12 +655,12 @@
       <c r="A1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:8" ht="16.5" customHeight="1"/>
@@ -972,7 +972,7 @@
       <c r="G14" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="H14" s="14" t="s">
+      <c r="H14" s="13" t="s">
         <v>67</v>
       </c>
     </row>
